--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS6.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS6.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="148">
   <si>
     <t>Signal_Value_1</t>
   </si>
@@ -384,6 +384,9 @@
     <t>Signal_Value_121</t>
   </si>
   <si>
+    <t>Signal_Value_122</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -456,10 +459,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -820,15 +820,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DR6"/>
+  <dimension ref="A1:DS6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:122">
+    <row r="1" spans="1:123">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1193,10 +1193,13 @@
       <c r="DR1" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="2" spans="1:122">
+    <row r="2" spans="1:123">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1205,100 +1208,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07608166605675355</v>
+        <v>0.251368788245568</v>
       </c>
       <c r="E2">
-        <v>0.1093643470470372</v>
+        <v>0.05904341964123403</v>
       </c>
       <c r="F2">
-        <v>0.1035346957670088</v>
+        <v>0.157896344238103</v>
       </c>
       <c r="G2">
-        <v>0.07721450182165016</v>
+        <v>0.0007247821999882355</v>
       </c>
       <c r="H2">
-        <v>0.04329494955339194</v>
+        <v>0.01014554772087767</v>
       </c>
       <c r="I2">
-        <v>0.01874873318420869</v>
+        <v>0.0002082924614514044</v>
       </c>
       <c r="J2">
-        <v>0.006328639828401554</v>
+        <v>0.005660269522903195</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1292948308669835</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.01665595356459166</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.009105862496077746</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.02807548367269073</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.05420025634940917</v>
+        <v>0.06541932867679733</v>
       </c>
       <c r="Q2">
-        <v>0.08630153083745656</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.09742572786329919</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08090454982030471</v>
+        <v>0.1630430263077218</v>
       </c>
       <c r="T2">
-        <v>0.04724437278031568</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.01575437574639897</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0003285194831818397</v>
+        <v>0.005619728768876009</v>
       </c>
       <c r="W2">
-        <v>0.0004875166156147856</v>
+        <v>0.02264104251906712</v>
       </c>
       <c r="X2">
-        <v>0.008231447607252773</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.02134821133528623</v>
+        <v>0.03847355709414244</v>
       </c>
       <c r="Z2">
-        <v>0.03023538698125021</v>
+        <v>0.005721202849711529</v>
       </c>
       <c r="AA2">
-        <v>0.03432628860686562</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.02637480651424441</v>
+        <v>0.004535387152147028</v>
       </c>
       <c r="AC2">
-        <v>0.01172205717180298</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.002534979927952096</v>
+        <v>0.0190477049001671</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.004073209622543495</v>
+        <v>0.01430092613035744</v>
       </c>
       <c r="AG2">
-        <v>0.002421543596358863</v>
+        <v>0.002690640282181158</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.02750922685713056</v>
       </c>
       <c r="AI2">
-        <v>0.004336339713242436</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -1561,10 +1564,13 @@
       <c r="DR2">
         <v>0</v>
       </c>
+      <c r="DS2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:122">
+    <row r="3" spans="1:123">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1621,16 +1627,16 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.01495991256194992</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.01699315150615525</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.01002126211916571</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.004522736390803145</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1648,73 +1654,73 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.001978148959590188</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.007559771784733482</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.01482281426444428</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.02469664241067582</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.03395026095093984</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.04445460456169823</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.05135290058882806</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.05043448483769457</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.04494506397020096</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0292313325362352</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.01322505662500979</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0004709682272229343</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.001002932051820441</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.01468805158701393</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.04210803568211121</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.07074449810309796</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.1010850663841585</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.1116431843960086</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.1075544198023629</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.08789053788448416</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0589682351001643</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0301404931977519</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.01055543351567865</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -1834,105 +1840,108 @@
         <v>0</v>
       </c>
       <c r="CM3">
-        <v>0</v>
+        <v>0.01518155282905848</v>
       </c>
       <c r="CN3">
-        <v>0</v>
+        <v>0.04983463099802288</v>
       </c>
       <c r="CO3">
-        <v>0</v>
+        <v>0.1158435390243724</v>
       </c>
       <c r="CP3">
-        <v>0</v>
+        <v>0.06004647428261212</v>
       </c>
       <c r="CQ3">
-        <v>0</v>
+        <v>0.0003668071110602622</v>
       </c>
       <c r="CR3">
-        <v>0</v>
+        <v>0.008059963631151027</v>
       </c>
       <c r="CS3">
-        <v>0</v>
+        <v>0.05988846452477692</v>
       </c>
       <c r="CT3">
-        <v>0</v>
+        <v>0.05131889640335002</v>
       </c>
       <c r="CU3">
-        <v>0</v>
+        <v>0.06782371264041546</v>
       </c>
       <c r="CV3">
-        <v>0</v>
+        <v>0.0001382488181261629</v>
       </c>
       <c r="CW3">
-        <v>0</v>
+        <v>0.002612399126298636</v>
       </c>
       <c r="CX3">
-        <v>0</v>
+        <v>0.01680943958617686</v>
       </c>
       <c r="CY3">
-        <v>0</v>
+        <v>0.1422206554298101</v>
       </c>
       <c r="CZ3">
-        <v>0</v>
+        <v>0.0003981064309173968</v>
       </c>
       <c r="DA3">
-        <v>0</v>
+        <v>0.01886698982255036</v>
       </c>
       <c r="DB3">
-        <v>0</v>
+        <v>0.08377991967127273</v>
       </c>
       <c r="DC3">
-        <v>0</v>
+        <v>0.05050601623769589</v>
       </c>
       <c r="DD3">
-        <v>0</v>
+        <v>0.008025244748431561</v>
       </c>
       <c r="DE3">
-        <v>0</v>
+        <v>0.004882628718087006</v>
       </c>
       <c r="DF3">
-        <v>0</v>
+        <v>0.08751485308921092</v>
       </c>
       <c r="DG3">
-        <v>0</v>
+        <v>0.048952968276239</v>
       </c>
       <c r="DH3">
-        <v>0</v>
+        <v>0.01240663084109027</v>
       </c>
       <c r="DI3">
-        <v>0</v>
+        <v>0.0118759113006498</v>
       </c>
       <c r="DJ3">
-        <v>0</v>
+        <v>0.0001655173412685695</v>
       </c>
       <c r="DK3">
-        <v>0</v>
+        <v>0.001123499016442429</v>
       </c>
       <c r="DL3">
-        <v>0</v>
+        <v>0.00336713126842938</v>
       </c>
       <c r="DM3">
-        <v>0</v>
+        <v>0.03321569873901497</v>
       </c>
       <c r="DN3">
-        <v>0</v>
+        <v>0.002275197217637445</v>
       </c>
       <c r="DO3">
-        <v>0</v>
+        <v>0.01487564867794316</v>
       </c>
       <c r="DP3">
-        <v>0</v>
+        <v>0.0004274786518463367</v>
       </c>
       <c r="DQ3">
-        <v>0</v>
+        <v>0.01388685466735139</v>
       </c>
       <c r="DR3">
+        <v>0.01330892087869012</v>
+      </c>
+      <c r="DS3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:122">
+    <row r="4" spans="1:123">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1956,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.07844332834209596</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09493797079808125</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.07436316525397073</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.03780144440907674</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.01038886283653838</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1977,79 +1986,79 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.009866988085663941</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.01873977542615803</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.008281174482985062</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001014218725047067</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001360700717083103</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.01467040021817335</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.02945828966461314</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0276217022440547</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.04758622450010901</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.04326666077666622</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.02075625932851367</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.002391393674652738</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.01804798937316324</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.03145189740008335</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0387964282649966</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.04070853084653874</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.05049700909327873</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.06329628299592184</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.07601219709247424</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.07506663107651017</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.05763627320449716</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.02197323525344476</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.005564965915608286</v>
+        <v>0</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -2205,102 +2214,105 @@
         <v>0</v>
       </c>
       <c r="CN4">
-        <v>0</v>
+        <v>0.106108417017655</v>
       </c>
       <c r="CO4">
-        <v>0</v>
+        <v>0.02921159706531845</v>
       </c>
       <c r="CP4">
-        <v>0</v>
+        <v>0.04782222913823345</v>
       </c>
       <c r="CQ4">
-        <v>0</v>
+        <v>0.0001938837288694635</v>
       </c>
       <c r="CR4">
-        <v>0</v>
+        <v>0.04706692667478487</v>
       </c>
       <c r="CS4">
         <v>0</v>
       </c>
       <c r="CT4">
-        <v>0</v>
+        <v>0.09778536020219686</v>
       </c>
       <c r="CU4">
-        <v>0</v>
+        <v>0.05120019380200119</v>
       </c>
       <c r="CV4">
         <v>0</v>
       </c>
       <c r="CW4">
-        <v>0</v>
+        <v>0.01168104660514413</v>
       </c>
       <c r="CX4">
-        <v>0</v>
+        <v>0.01008039303446079</v>
       </c>
       <c r="CY4">
-        <v>0</v>
+        <v>0.09147043465381113</v>
       </c>
       <c r="CZ4">
-        <v>0</v>
+        <v>0.08688743794690751</v>
       </c>
       <c r="DA4">
-        <v>0</v>
+        <v>0.07862278029569594</v>
       </c>
       <c r="DB4">
-        <v>0</v>
+        <v>0.004810837196950755</v>
       </c>
       <c r="DC4">
-        <v>0</v>
+        <v>0.1103452410963263</v>
       </c>
       <c r="DD4">
-        <v>0</v>
+        <v>0.0001685590189563654</v>
       </c>
       <c r="DE4">
-        <v>0</v>
+        <v>0.02453152658576016</v>
       </c>
       <c r="DF4">
-        <v>0</v>
+        <v>0.01086740139687769</v>
       </c>
       <c r="DG4">
-        <v>0</v>
+        <v>0.04563082977124957</v>
       </c>
       <c r="DH4">
-        <v>0</v>
+        <v>0.002355316644272595</v>
       </c>
       <c r="DI4">
-        <v>0</v>
+        <v>0.01230233229888577</v>
       </c>
       <c r="DJ4">
-        <v>0</v>
+        <v>0.0001444527159287566</v>
       </c>
       <c r="DK4">
-        <v>0</v>
+        <v>1.302480125333896E-05</v>
       </c>
       <c r="DL4">
-        <v>0</v>
+        <v>0.03497441704838201</v>
       </c>
       <c r="DM4">
-        <v>0</v>
+        <v>0.01620359221968863</v>
       </c>
       <c r="DN4">
-        <v>0</v>
+        <v>0.0236180394128678</v>
       </c>
       <c r="DO4">
-        <v>0</v>
+        <v>0.02322241181871509</v>
       </c>
       <c r="DP4">
-        <v>0</v>
+        <v>0.01057226691631337</v>
       </c>
       <c r="DQ4">
-        <v>0</v>
+        <v>0.01074205886156377</v>
       </c>
       <c r="DR4">
-        <v>0</v>
+        <v>0.01011866320251949</v>
+      </c>
+      <c r="DS4">
+        <v>0.001248328828409694</v>
       </c>
     </row>
-    <row r="5" spans="1:122">
+    <row r="5" spans="1:123">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2495,22 +2507,22 @@
         <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.005141238441090582</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.007370642758734537</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.006738182108198391</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.004711615098098622</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.001796992741378252</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0003224896434705334</v>
+        <v>0</v>
       </c>
       <c r="BT5">
         <v>0</v>
@@ -2519,156 +2531,159 @@
         <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0003705995380561557</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.0004958950471011936</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.001334367939243985</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.001101530351623464</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.001297964554594669</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.002061060528610604</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.002847200005367023</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.00224889961454718</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.002376123899974797</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.002652852232661255</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.001943615374450408</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.001651070198429972</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.0009347330231681108</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.0008654094386138058</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.0008203347478304537</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.001206491867033395</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.01080328439448116</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.009029111590167701</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.06466202884622456</v>
+        <v>0.1339886293315407</v>
       </c>
       <c r="CO5">
-        <v>0.1916578566002218</v>
+        <v>0.01120139329827502</v>
       </c>
       <c r="CP5">
-        <v>0.1026820749289815</v>
+        <v>0.09504636428607181</v>
       </c>
       <c r="CQ5">
-        <v>0.2957618815103163</v>
+        <v>0.004183417811084849</v>
       </c>
       <c r="CR5">
-        <v>0.257777710079043</v>
+        <v>0.001183724167953052</v>
       </c>
       <c r="CS5">
-        <v>0.01733674289828662</v>
+        <v>0.005943134983705287</v>
       </c>
       <c r="CT5">
-        <v>0</v>
+        <v>0.0477113760816211</v>
       </c>
       <c r="CU5">
-        <v>0</v>
+        <v>0.04453452504272767</v>
       </c>
       <c r="CV5">
-        <v>0</v>
+        <v>0.003324405730160714</v>
       </c>
       <c r="CW5">
-        <v>0</v>
+        <v>0.005386882048534191</v>
       </c>
       <c r="CX5">
-        <v>0</v>
+        <v>0.04279115026911289</v>
       </c>
       <c r="CY5">
-        <v>0</v>
+        <v>0.0002458118289277278</v>
       </c>
       <c r="CZ5">
-        <v>0</v>
+        <v>0.1910107225789562</v>
       </c>
       <c r="DA5">
-        <v>0</v>
+        <v>0.002476146122163335</v>
       </c>
       <c r="DB5">
-        <v>0</v>
+        <v>0.02979691823843188</v>
       </c>
       <c r="DC5">
-        <v>0</v>
+        <v>0.1175026809644021</v>
       </c>
       <c r="DD5">
-        <v>0</v>
+        <v>0.02809096716627766</v>
       </c>
       <c r="DE5">
-        <v>0</v>
+        <v>0.00158875945990471</v>
       </c>
       <c r="DF5">
-        <v>0</v>
+        <v>0.01633273529813461</v>
       </c>
       <c r="DG5">
-        <v>0</v>
+        <v>0.02538538578585158</v>
       </c>
       <c r="DH5">
-        <v>0</v>
+        <v>0.001010512651809613</v>
       </c>
       <c r="DI5">
-        <v>0</v>
+        <v>0.02902881894745915</v>
       </c>
       <c r="DJ5">
-        <v>0</v>
+        <v>0.006069645773804151</v>
       </c>
       <c r="DK5">
-        <v>0</v>
+        <v>0.01223764092857541</v>
       </c>
       <c r="DL5">
-        <v>0</v>
+        <v>0.02676721229974087</v>
       </c>
       <c r="DM5">
-        <v>0</v>
+        <v>0.0007735234899208912</v>
       </c>
       <c r="DN5">
-        <v>0</v>
+        <v>0.0293057795551362</v>
       </c>
       <c r="DO5">
-        <v>0</v>
+        <v>0.0009800120082339241</v>
       </c>
       <c r="DP5">
-        <v>0</v>
+        <v>0.04499700989121402</v>
       </c>
       <c r="DQ5">
-        <v>0</v>
+        <v>0.0001620734810260394</v>
       </c>
       <c r="DR5">
-        <v>0</v>
+        <v>0.03973666455385208</v>
+      </c>
+      <c r="DS5">
+        <v>0.001205975925390337</v>
       </c>
     </row>
-    <row r="6" spans="1:122">
+    <row r="6" spans="1:123">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2938,100 +2953,103 @@
         <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.004255311804411637</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.03399078071361505</v>
+        <v>0.05129806013914377</v>
       </c>
       <c r="CO6">
-        <v>0.02119021718541539</v>
+        <v>0.1302658129258604</v>
       </c>
       <c r="CP6">
-        <v>0.05611715064867414</v>
+        <v>4.867579937425547E-05</v>
       </c>
       <c r="CQ6">
-        <v>0.04027542416388254</v>
+        <v>0.005946535557160202</v>
       </c>
       <c r="CR6">
-        <v>0.06221881746410966</v>
+        <v>0.05305544815778127</v>
       </c>
       <c r="CS6">
-        <v>0.0008298598453513509</v>
+        <v>0.0138756927537268</v>
       </c>
       <c r="CT6">
-        <v>0.03100291297292717</v>
+        <v>0.0467151608656247</v>
       </c>
       <c r="CU6">
-        <v>0.01081500610038205</v>
+        <v>0.04445943511954297</v>
       </c>
       <c r="CV6">
-        <v>0.01306321737085211</v>
+        <v>0.02168499503869837</v>
       </c>
       <c r="CW6">
-        <v>0.02463630495378299</v>
+        <v>0.0006362329228360874</v>
       </c>
       <c r="CX6">
-        <v>0.07113032109634947</v>
+        <v>0.06789980025474784</v>
       </c>
       <c r="CY6">
-        <v>0.004325364856775015</v>
+        <v>0.04599553391190167</v>
       </c>
       <c r="CZ6">
-        <v>0.04394863687671602</v>
+        <v>0.1405242326271975</v>
       </c>
       <c r="DA6">
-        <v>0.09227917502171198</v>
+        <v>0.02491982139839623</v>
       </c>
       <c r="DB6">
-        <v>0.04031645320977035</v>
+        <v>0.000556687373319014</v>
       </c>
       <c r="DC6">
-        <v>0.01836709644940079</v>
+        <v>0.05571679452911626</v>
       </c>
       <c r="DD6">
-        <v>0.001217725163474138</v>
+        <v>0.005336722610258585</v>
       </c>
       <c r="DE6">
-        <v>0.03472203626021523</v>
+        <v>0.008296039835275619</v>
       </c>
       <c r="DF6">
-        <v>0.09685888685588516</v>
+        <v>0.05308276743324501</v>
       </c>
       <c r="DG6">
-        <v>0.08378901955580988</v>
+        <v>0.005015060662034659</v>
       </c>
       <c r="DH6">
-        <v>0.03412281487527445</v>
+        <v>0.01104319717319511</v>
       </c>
       <c r="DI6">
-        <v>0.0165668888384845</v>
+        <v>0.03965018218545873</v>
       </c>
       <c r="DJ6">
-        <v>0.006426685027891297</v>
+        <v>0.02136047214935602</v>
       </c>
       <c r="DK6">
-        <v>0.0001484453032311201</v>
+        <v>0.0004695714800641563</v>
       </c>
       <c r="DL6">
-        <v>0.01594342118355496</v>
+        <v>0.05281203440706455</v>
       </c>
       <c r="DM6">
-        <v>0.04503928808736226</v>
+        <v>0.03625389338559837</v>
       </c>
       <c r="DN6">
-        <v>0.0427191224990074</v>
+        <v>0.02198404100548076</v>
       </c>
       <c r="DO6">
-        <v>0.02202292307194811</v>
+        <v>0.01223617182772015</v>
       </c>
       <c r="DP6">
-        <v>0.01656952214991271</v>
+        <v>0.01077526449084923</v>
       </c>
       <c r="DQ6">
-        <v>0.01292088303721419</v>
+        <v>0.01431704297101521</v>
       </c>
       <c r="DR6">
-        <v>0.002170287356607117</v>
+        <v>0.003708076127470181</v>
+      </c>
+      <c r="DS6">
+        <v>6.054288148638831E-05</v>
       </c>
     </row>
   </sheetData>
@@ -3041,15 +3059,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DR6"/>
+  <dimension ref="A1:DS6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:122">
+    <row r="1" spans="1:123">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3414,10 +3432,13 @@
       <c r="DR1" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="2" spans="1:122">
+    <row r="2" spans="1:123">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3426,97 +3447,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07608166605675355</v>
+        <v>0.251368788245568</v>
       </c>
       <c r="E2">
-        <v>0.1854460131037908</v>
+        <v>0.310412207886802</v>
       </c>
       <c r="F2">
-        <v>0.2889807088707996</v>
+        <v>0.4683085521249051</v>
       </c>
       <c r="G2">
-        <v>0.3661952106924498</v>
+        <v>0.4690333343248933</v>
       </c>
       <c r="H2">
-        <v>0.4094901602458417</v>
+        <v>0.479178882045771</v>
       </c>
       <c r="I2">
-        <v>0.4282388934300504</v>
+        <v>0.4793871745072224</v>
       </c>
       <c r="J2">
-        <v>0.4345675332584519</v>
+        <v>0.4850474440301256</v>
       </c>
       <c r="K2">
-        <v>0.4345675332584519</v>
+        <v>0.6143422748971091</v>
       </c>
       <c r="L2">
-        <v>0.4345675332584519</v>
+        <v>0.6309982284617008</v>
       </c>
       <c r="M2">
-        <v>0.4345675332584519</v>
+        <v>0.6309982284617008</v>
       </c>
       <c r="N2">
-        <v>0.4436733957545297</v>
+        <v>0.6309982284617008</v>
       </c>
       <c r="O2">
-        <v>0.4717488794272204</v>
+        <v>0.6309982284617008</v>
       </c>
       <c r="P2">
-        <v>0.5259491357766296</v>
+        <v>0.6964175571384982</v>
       </c>
       <c r="Q2">
-        <v>0.6122506666140861</v>
+        <v>0.6964175571384982</v>
       </c>
       <c r="R2">
-        <v>0.7096763944773853</v>
+        <v>0.6964175571384982</v>
       </c>
       <c r="S2">
-        <v>0.79058094429769</v>
+        <v>0.85946058344622</v>
       </c>
       <c r="T2">
-        <v>0.8378253170780057</v>
+        <v>0.85946058344622</v>
       </c>
       <c r="U2">
-        <v>0.8535796928244046</v>
+        <v>0.85946058344622</v>
       </c>
       <c r="V2">
-        <v>0.8539082123075864</v>
+        <v>0.8650803122150961</v>
       </c>
       <c r="W2">
-        <v>0.8543957289232011</v>
+        <v>0.8877213547341631</v>
       </c>
       <c r="X2">
-        <v>0.862627176530454</v>
+        <v>0.8877213547341631</v>
       </c>
       <c r="Y2">
-        <v>0.8839753878657401</v>
+        <v>0.9261949118283056</v>
       </c>
       <c r="Z2">
-        <v>0.9142107748469903</v>
+        <v>0.9319161146780172</v>
       </c>
       <c r="AA2">
-        <v>0.9485370634538559</v>
+        <v>0.9319161146780172</v>
       </c>
       <c r="AB2">
-        <v>0.9749118699681003</v>
+        <v>0.9364515018301642</v>
       </c>
       <c r="AC2">
-        <v>0.9866339271399033</v>
+        <v>0.9364515018301642</v>
       </c>
       <c r="AD2">
-        <v>0.9891689070678553</v>
+        <v>0.9554992067303313</v>
       </c>
       <c r="AE2">
-        <v>0.9891689070678553</v>
+        <v>0.9554992067303313</v>
       </c>
       <c r="AF2">
-        <v>0.9932421166903989</v>
+        <v>0.9698001328606887</v>
       </c>
       <c r="AG2">
-        <v>0.9956636602867577</v>
+        <v>0.9724907731428698</v>
       </c>
       <c r="AH2">
-        <v>0.9956636602867577</v>
+        <v>1</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -3782,10 +3803,13 @@
       <c r="DR2">
         <v>1</v>
       </c>
+      <c r="DS2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:122">
+    <row r="3" spans="1:123">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3842,318 +3866,321 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.01495991256194992</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.03195306406810516</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.04197432618727087</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.04649706257807402</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.04649706257807402</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.04649706257807402</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.04649706257807402</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.04649706257807402</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04649706257807402</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.04847521153766421</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.05603498332239769</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.07085779758684198</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0955544399975178</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.1295047009484576</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.1739593055101558</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.2253122060989839</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.2757466909366785</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.3206917549068795</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.3499230874431147</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.3631481440681245</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.3636191122953474</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.3646220443471678</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.3793100959341817</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.4214181316162929</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.4921626297193909</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.5932476961035493</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.7048908804995579</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.8124453003019209</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.9003358381864051</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.9593040732865694</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.9894445664843213</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>1</v>
+        <v>0.01518155282905848</v>
       </c>
       <c r="CN3">
-        <v>1</v>
+        <v>0.06501618382708137</v>
       </c>
       <c r="CO3">
-        <v>1</v>
+        <v>0.1808597228514537</v>
       </c>
       <c r="CP3">
-        <v>1</v>
+        <v>0.2409061971340659</v>
       </c>
       <c r="CQ3">
-        <v>1</v>
+        <v>0.2412730042451261</v>
       </c>
       <c r="CR3">
-        <v>1</v>
+        <v>0.2493329678762772</v>
       </c>
       <c r="CS3">
-        <v>1</v>
+        <v>0.309221432401054</v>
       </c>
       <c r="CT3">
-        <v>1</v>
+        <v>0.3605403288044041</v>
       </c>
       <c r="CU3">
-        <v>1</v>
+        <v>0.4283640414448195</v>
       </c>
       <c r="CV3">
-        <v>1</v>
+        <v>0.4285022902629457</v>
       </c>
       <c r="CW3">
-        <v>1</v>
+        <v>0.4311146893892444</v>
       </c>
       <c r="CX3">
-        <v>1</v>
+        <v>0.4479241289754212</v>
       </c>
       <c r="CY3">
-        <v>1</v>
+        <v>0.5901447844052312</v>
       </c>
       <c r="CZ3">
-        <v>1</v>
+        <v>0.5905428908361486</v>
       </c>
       <c r="DA3">
-        <v>1</v>
+        <v>0.6094098806586989</v>
       </c>
       <c r="DB3">
-        <v>1</v>
+        <v>0.6931898003299717</v>
       </c>
       <c r="DC3">
-        <v>1</v>
+        <v>0.7436958165676676</v>
       </c>
       <c r="DD3">
-        <v>1</v>
+        <v>0.7517210613160992</v>
       </c>
       <c r="DE3">
-        <v>1</v>
+        <v>0.7566036900341861</v>
       </c>
       <c r="DF3">
-        <v>1</v>
+        <v>0.8441185431233971</v>
       </c>
       <c r="DG3">
-        <v>1</v>
+        <v>0.893071511399636</v>
       </c>
       <c r="DH3">
-        <v>1</v>
+        <v>0.9054781422407263</v>
       </c>
       <c r="DI3">
-        <v>1</v>
+        <v>0.9173540535413761</v>
       </c>
       <c r="DJ3">
-        <v>1</v>
+        <v>0.9175195708826447</v>
       </c>
       <c r="DK3">
-        <v>1</v>
+        <v>0.9186430698990871</v>
       </c>
       <c r="DL3">
-        <v>1</v>
+        <v>0.9220102011675164</v>
       </c>
       <c r="DM3">
-        <v>1</v>
+        <v>0.9552258999065314</v>
       </c>
       <c r="DN3">
-        <v>1</v>
+        <v>0.9575010971241689</v>
       </c>
       <c r="DO3">
-        <v>1</v>
+        <v>0.972376745802112</v>
       </c>
       <c r="DP3">
-        <v>1</v>
+        <v>0.9728042244539583</v>
       </c>
       <c r="DQ3">
-        <v>1</v>
+        <v>0.9866910791213097</v>
       </c>
       <c r="DR3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DS3">
+        <v>0.9999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:122">
+    <row r="4" spans="1:123">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4177,351 +4204,354 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.07844332834209596</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1733812991401772</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2477444643941479</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2855459088032247</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2959347716397631</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2959347716397631</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2959347716397631</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.305801759725427</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.324541535151585</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.3328227096345701</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3338369283596171</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.3351976290767003</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.3498680292948736</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.3793263189594868</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.4069480212035415</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.4545342457036505</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.4978009064803167</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.5185571658088304</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.5209485594834831</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.5209485594834831</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.5389965488566463</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.5704484462567296</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.6092448745217263</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.649953405368265</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7004504144615437</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.7637466974574655</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.8397588945499397</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.9148255256264498</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.972461798830947</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.9944350340843917</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.9944350340843917</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>1</v>
+        <v>0.106108417017655</v>
       </c>
       <c r="CO4">
-        <v>1</v>
+        <v>0.1353200140829735</v>
       </c>
       <c r="CP4">
-        <v>1</v>
+        <v>0.183142243221207</v>
       </c>
       <c r="CQ4">
-        <v>1</v>
+        <v>0.1833361269500764</v>
       </c>
       <c r="CR4">
-        <v>1</v>
+        <v>0.2304030536248613</v>
       </c>
       <c r="CS4">
-        <v>1</v>
+        <v>0.2304030536248613</v>
       </c>
       <c r="CT4">
-        <v>1</v>
+        <v>0.3281884138270582</v>
       </c>
       <c r="CU4">
-        <v>1</v>
+        <v>0.3793886076290593</v>
       </c>
       <c r="CV4">
-        <v>1</v>
+        <v>0.3793886076290593</v>
       </c>
       <c r="CW4">
-        <v>1</v>
+        <v>0.3910696542342035</v>
       </c>
       <c r="CX4">
-        <v>1</v>
+        <v>0.4011500472686643</v>
       </c>
       <c r="CY4">
-        <v>1</v>
+        <v>0.4926204819224754</v>
       </c>
       <c r="CZ4">
-        <v>1</v>
+        <v>0.5795079198693829</v>
       </c>
       <c r="DA4">
-        <v>1</v>
+        <v>0.6581307001650788</v>
       </c>
       <c r="DB4">
-        <v>1</v>
+        <v>0.6629415373620295</v>
       </c>
       <c r="DC4">
-        <v>1</v>
+        <v>0.7732867784583559</v>
       </c>
       <c r="DD4">
-        <v>1</v>
+        <v>0.7734553374773123</v>
       </c>
       <c r="DE4">
-        <v>1</v>
+        <v>0.7979868640630725</v>
       </c>
       <c r="DF4">
-        <v>1</v>
+        <v>0.8088542654599502</v>
       </c>
       <c r="DG4">
-        <v>1</v>
+        <v>0.8544850952311998</v>
       </c>
       <c r="DH4">
-        <v>1</v>
+        <v>0.8568404118754723</v>
       </c>
       <c r="DI4">
-        <v>1</v>
+        <v>0.8691427441743581</v>
       </c>
       <c r="DJ4">
-        <v>1</v>
+        <v>0.8692871968902869</v>
       </c>
       <c r="DK4">
-        <v>1</v>
+        <v>0.8693002216915402</v>
       </c>
       <c r="DL4">
-        <v>1</v>
+        <v>0.9042746387399222</v>
       </c>
       <c r="DM4">
-        <v>1</v>
+        <v>0.9204782309596108</v>
       </c>
       <c r="DN4">
-        <v>1</v>
+        <v>0.9440962703724786</v>
       </c>
       <c r="DO4">
-        <v>1</v>
+        <v>0.9673186821911937</v>
       </c>
       <c r="DP4">
-        <v>1</v>
+        <v>0.9778909491075071</v>
       </c>
       <c r="DQ4">
-        <v>1</v>
+        <v>0.9886330079690708</v>
       </c>
       <c r="DR4">
+        <v>0.9987516711715904</v>
+      </c>
+      <c r="DS4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:122">
+    <row r="5" spans="1:123">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4716,180 +4746,183 @@
         <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.005141238441090582</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.01251188119982512</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.01925006330802351</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.02396167840612213</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.02575867114750038</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.02608116079097092</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.02608116079097092</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.02608116079097092</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.02645176032902707</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.02694765537612826</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.02828202331537225</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.02938355366699571</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.03068151822159038</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.03274257875020099</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.03558977875556801</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.03783867837011519</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.04021480227008999</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.04286765450275124</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.04481126987720165</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.04646234007563162</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.04739707309879974</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.04826248253741354</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.049082817285244</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.05028930915227739</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.06109259354675855</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.07012170513692625</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1347837339831508</v>
+        <v>0.1339886293315407</v>
       </c>
       <c r="CO5">
-        <v>0.3264415905833726</v>
+        <v>0.1451900226298157</v>
       </c>
       <c r="CP5">
-        <v>0.4291236655123541</v>
+        <v>0.2402363869158875</v>
       </c>
       <c r="CQ5">
-        <v>0.7248855470226705</v>
+        <v>0.2444198047269724</v>
       </c>
       <c r="CR5">
-        <v>0.9826632571017135</v>
+        <v>0.2456035288949254</v>
       </c>
       <c r="CS5">
-        <v>1</v>
+        <v>0.2515466638786307</v>
       </c>
       <c r="CT5">
-        <v>1</v>
+        <v>0.2992580399602518</v>
       </c>
       <c r="CU5">
-        <v>1</v>
+        <v>0.3437925650029795</v>
       </c>
       <c r="CV5">
-        <v>1</v>
+        <v>0.3471169707331402</v>
       </c>
       <c r="CW5">
-        <v>1</v>
+        <v>0.3525038527816745</v>
       </c>
       <c r="CX5">
-        <v>1</v>
+        <v>0.3952950030507874</v>
       </c>
       <c r="CY5">
-        <v>1</v>
+        <v>0.3955408148797151</v>
       </c>
       <c r="CZ5">
-        <v>1</v>
+        <v>0.5865515374586713</v>
       </c>
       <c r="DA5">
-        <v>1</v>
+        <v>0.5890276835808346</v>
       </c>
       <c r="DB5">
-        <v>1</v>
+        <v>0.6188246018192665</v>
       </c>
       <c r="DC5">
-        <v>1</v>
+        <v>0.7363272827836685</v>
       </c>
       <c r="DD5">
-        <v>1</v>
+        <v>0.7644182499499462</v>
       </c>
       <c r="DE5">
-        <v>1</v>
+        <v>0.7660070094098509</v>
       </c>
       <c r="DF5">
-        <v>1</v>
+        <v>0.7823397447079855</v>
       </c>
       <c r="DG5">
-        <v>1</v>
+        <v>0.8077251304938371</v>
       </c>
       <c r="DH5">
-        <v>1</v>
+        <v>0.8087356431456467</v>
       </c>
       <c r="DI5">
-        <v>1</v>
+        <v>0.8377644620931058</v>
       </c>
       <c r="DJ5">
-        <v>1</v>
+        <v>0.84383410786691</v>
       </c>
       <c r="DK5">
-        <v>1</v>
+        <v>0.8560717487954854</v>
       </c>
       <c r="DL5">
-        <v>1</v>
+        <v>0.8828389610952263</v>
       </c>
       <c r="DM5">
-        <v>1</v>
+        <v>0.8836124845851472</v>
       </c>
       <c r="DN5">
-        <v>1</v>
+        <v>0.9129182641402834</v>
       </c>
       <c r="DO5">
-        <v>1</v>
+        <v>0.9138982761485174</v>
       </c>
       <c r="DP5">
-        <v>1</v>
+        <v>0.9588952860397314</v>
       </c>
       <c r="DQ5">
-        <v>1</v>
+        <v>0.9590573595207574</v>
       </c>
       <c r="DR5">
-        <v>1</v>
+        <v>0.9987940240746095</v>
+      </c>
+      <c r="DS5">
+        <v>0.9999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:122">
+    <row r="6" spans="1:123">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5159,99 +5192,102 @@
         <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.004255311804411637</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.03824609251802669</v>
+        <v>0.05129806013914377</v>
       </c>
       <c r="CO6">
-        <v>0.05943630970344208</v>
+        <v>0.1815638730650042</v>
       </c>
       <c r="CP6">
-        <v>0.1155534603521162</v>
+        <v>0.1816125488643785</v>
       </c>
       <c r="CQ6">
-        <v>0.1558288845159988</v>
+        <v>0.1875590844215387</v>
       </c>
       <c r="CR6">
-        <v>0.2180477019801084</v>
+        <v>0.2406145325793199</v>
       </c>
       <c r="CS6">
-        <v>0.2188775618254598</v>
+        <v>0.2544902253330468</v>
       </c>
       <c r="CT6">
-        <v>0.249880474798387</v>
+        <v>0.3012053861986715</v>
       </c>
       <c r="CU6">
-        <v>0.260695480898769</v>
+        <v>0.3456648213182145</v>
       </c>
       <c r="CV6">
-        <v>0.2737586982696211</v>
+        <v>0.3673498163569128</v>
       </c>
       <c r="CW6">
-        <v>0.2983950032234041</v>
+        <v>0.3679860492797489</v>
       </c>
       <c r="CX6">
-        <v>0.3695253243197536</v>
+        <v>0.4358858495344968</v>
       </c>
       <c r="CY6">
-        <v>0.3738506891765286</v>
+        <v>0.4818813834463984</v>
       </c>
       <c r="CZ6">
-        <v>0.4177993260532447</v>
+        <v>0.6224056160735959</v>
       </c>
       <c r="DA6">
-        <v>0.5100785010749567</v>
+        <v>0.6473254374719921</v>
       </c>
       <c r="DB6">
-        <v>0.5503949542847271</v>
+        <v>0.6478821248453112</v>
       </c>
       <c r="DC6">
-        <v>0.5687620507341279</v>
+        <v>0.7035989193744274</v>
       </c>
       <c r="DD6">
-        <v>0.5699797758976021</v>
+        <v>0.7089356419846861</v>
       </c>
       <c r="DE6">
-        <v>0.6047018121578173</v>
+        <v>0.7172316818199617</v>
       </c>
       <c r="DF6">
-        <v>0.7015606990137024</v>
+        <v>0.7703144492532067</v>
       </c>
       <c r="DG6">
-        <v>0.7853497185695123</v>
+        <v>0.7753295099152413</v>
       </c>
       <c r="DH6">
-        <v>0.8194725334447868</v>
+        <v>0.7863727070884364</v>
       </c>
       <c r="DI6">
-        <v>0.8360394222832712</v>
+        <v>0.8260228892738951</v>
       </c>
       <c r="DJ6">
-        <v>0.8424661073111626</v>
+        <v>0.8473833614232511</v>
       </c>
       <c r="DK6">
-        <v>0.8426145526143937</v>
+        <v>0.8478529329033152</v>
       </c>
       <c r="DL6">
-        <v>0.8585579737979486</v>
+        <v>0.9006649673103797</v>
       </c>
       <c r="DM6">
-        <v>0.9035972618853109</v>
+        <v>0.9369188606959781</v>
       </c>
       <c r="DN6">
-        <v>0.9463163843843183</v>
+        <v>0.9589029017014589</v>
       </c>
       <c r="DO6">
-        <v>0.9683393074562664</v>
+        <v>0.9711390735291791</v>
       </c>
       <c r="DP6">
-        <v>0.9849088296061791</v>
+        <v>0.9819143380200283</v>
       </c>
       <c r="DQ6">
-        <v>0.9978297126433933</v>
+        <v>0.9962313809910435</v>
       </c>
       <c r="DR6">
+        <v>0.9999394571185136</v>
+      </c>
+      <c r="DS6">
         <v>1</v>
       </c>
     </row>
@@ -5270,57 +5306,57 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -5329,39 +5365,36 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>0.07608166605675355</v>
+        <v>0.251368788245568</v>
       </c>
       <c r="F2">
-        <v>0.5259491357766296</v>
+        <v>0.6143422748971091</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L2">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>145</v>
-      </c>
-      <c r="O2" t="s">
         <v>146</v>
       </c>
       <c r="P2" t="s">
@@ -5370,48 +5403,45 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>0.01495991256194992</v>
+        <v>0.1808597228514537</v>
       </c>
       <c r="F3">
-        <v>0.5932476961035493</v>
+        <v>0.5901447844052312</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L3">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>145</v>
-      </c>
-      <c r="O3" t="s">
         <v>146</v>
       </c>
       <c r="P3" t="s">
@@ -5420,48 +5450,45 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="E4">
-        <v>0.07844332834209596</v>
+        <v>0.106108417017655</v>
       </c>
       <c r="F4">
-        <v>0.5185571658088304</v>
+        <v>0.5795079198693829</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L4">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O4" t="s">
         <v>146</v>
       </c>
       <c r="P4" t="s">
@@ -5470,48 +5497,45 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E5">
-        <v>0.01251188119982512</v>
+        <v>0.1339886293315407</v>
       </c>
       <c r="F5">
-        <v>0.7248855470226705</v>
+        <v>0.5865515374586713</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L5">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" t="s">
         <v>146</v>
       </c>
       <c r="P5" t="s">
@@ -5520,48 +5544,45 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6">
-        <v>0.03824609251802669</v>
+        <v>0.1815638730650042</v>
       </c>
       <c r="F6">
-        <v>0.5100785010749567</v>
+        <v>0.6224056160735959</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L6">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>145</v>
-      </c>
-      <c r="O6" t="s">
         <v>146</v>
       </c>
       <c r="P6" t="s">
@@ -5583,57 +5604,57 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -5642,39 +5663,36 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>0.07608166605675355</v>
+        <v>0.251368788245568</v>
       </c>
       <c r="F2">
-        <v>0.7096763944773853</v>
+        <v>0.85946058344622</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L2">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>145</v>
-      </c>
-      <c r="O2" t="s">
         <v>146</v>
       </c>
       <c r="P2" t="s">
@@ -5683,48 +5701,45 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.01495991256194992</v>
+        <v>0.1808597228514537</v>
       </c>
       <c r="F3">
-        <v>0.7048908804995579</v>
+        <v>0.7436958165676676</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L3">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>145</v>
-      </c>
-      <c r="O3" t="s">
         <v>146</v>
       </c>
       <c r="P3" t="s">
@@ -5733,48 +5748,45 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.07844332834209596</v>
+        <v>0.106108417017655</v>
       </c>
       <c r="F4">
-        <v>0.7004504144615437</v>
+        <v>0.7732867784583559</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L4">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O4" t="s">
         <v>146</v>
       </c>
       <c r="P4" t="s">
@@ -5783,48 +5795,45 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E5">
-        <v>0.01251188119982512</v>
+        <v>0.1339886293315407</v>
       </c>
       <c r="F5">
-        <v>0.7248855470226705</v>
+        <v>0.7363272827836685</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L5">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" t="s">
         <v>146</v>
       </c>
       <c r="P5" t="s">
@@ -5833,48 +5842,45 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.03824609251802669</v>
+        <v>0.1815638730650042</v>
       </c>
       <c r="F6">
-        <v>0.7015606990137024</v>
+        <v>0.7035989193744274</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L6">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>145</v>
-      </c>
-      <c r="O6" t="s">
         <v>146</v>
       </c>
       <c r="P6" t="s">
@@ -5896,57 +5902,57 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -5955,39 +5961,36 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>0.07608166605675355</v>
+        <v>0.251368788245568</v>
       </c>
       <c r="F2">
-        <v>0.8378253170780057</v>
+        <v>0.85946058344622</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L2">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>145</v>
-      </c>
-      <c r="O2" t="s">
         <v>146</v>
       </c>
       <c r="P2" t="s">
@@ -5996,48 +5999,45 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="E3">
-        <v>0.01495991256194992</v>
+        <v>0.1808597228514537</v>
       </c>
       <c r="F3">
-        <v>0.8124453003019209</v>
+        <v>0.8441185431233971</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L3">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>145</v>
-      </c>
-      <c r="O3" t="s">
         <v>146</v>
       </c>
       <c r="P3" t="s">
@@ -6046,48 +6046,45 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="E4">
-        <v>0.07844332834209596</v>
+        <v>0.106108417017655</v>
       </c>
       <c r="F4">
-        <v>0.8397588945499397</v>
+        <v>0.8088542654599502</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L4">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O4" t="s">
         <v>146</v>
       </c>
       <c r="P4" t="s">
@@ -6096,48 +6093,45 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="E5">
-        <v>0.01251188119982512</v>
+        <v>0.1339886293315407</v>
       </c>
       <c r="F5">
-        <v>0.9826632571017135</v>
+        <v>0.8077251304938371</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L5">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" t="s">
         <v>146</v>
       </c>
       <c r="P5" t="s">
@@ -6146,22 +6140,22 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6">
-        <v>0.03824609251802669</v>
+        <v>0.1815638730650042</v>
       </c>
       <c r="F6">
-        <v>0.8194725334447868</v>
+        <v>0.8260228892738951</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -6170,24 +6164,21 @@
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L6">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>145</v>
-      </c>
-      <c r="O6" t="s">
         <v>146</v>
       </c>
       <c r="P6" t="s">
@@ -6209,57 +6200,57 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -6268,39 +6259,36 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>0.07608166605675355</v>
+        <v>0.251368788245568</v>
       </c>
       <c r="F2">
-        <v>0.9142107748469903</v>
+        <v>0.9261949118283056</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L2">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>145</v>
-      </c>
-      <c r="O2" t="s">
         <v>146</v>
       </c>
       <c r="P2" t="s">
@@ -6309,48 +6297,45 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
+        <v>92</v>
+      </c>
+      <c r="D3">
+        <v>111</v>
+      </c>
+      <c r="E3">
+        <v>0.1808597228514537</v>
+      </c>
+      <c r="F3">
+        <v>0.9054781422407263</v>
+      </c>
+      <c r="G3">
         <v>19</v>
-      </c>
-      <c r="D3">
-        <v>47</v>
-      </c>
-      <c r="E3">
-        <v>0.01495991256194992</v>
-      </c>
-      <c r="F3">
-        <v>0.9003358381864051</v>
-      </c>
-      <c r="G3">
-        <v>28</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L3">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>145</v>
-      </c>
-      <c r="O3" t="s">
         <v>146</v>
       </c>
       <c r="P3" t="s">
@@ -6359,48 +6344,45 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="E4">
-        <v>0.07844332834209596</v>
+        <v>0.106108417017655</v>
       </c>
       <c r="F4">
-        <v>0.9148255256264498</v>
+        <v>0.9042746387399222</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L4">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O4" t="s">
         <v>146</v>
       </c>
       <c r="P4" t="s">
@@ -6409,48 +6391,45 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="E5">
-        <v>0.01251188119982512</v>
+        <v>0.1339886293315407</v>
       </c>
       <c r="F5">
-        <v>0.9826632571017135</v>
+        <v>0.9129182641402834</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L5">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" t="s">
         <v>146</v>
       </c>
       <c r="P5" t="s">
@@ -6459,48 +6438,45 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6">
-        <v>0.03824609251802669</v>
+        <v>0.1815638730650042</v>
       </c>
       <c r="F6">
-        <v>0.9035972618853109</v>
+        <v>0.9006649673103797</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L6">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>145</v>
-      </c>
-      <c r="O6" t="s">
         <v>146</v>
       </c>
       <c r="P6" t="s">
